--- a/reports/analysis/report.xlsx
+++ b/reports/analysis/report.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -498,22 +498,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100086</v>
+        <v>99999</v>
       </c>
       <c r="H2" t="n">
-        <v>82.48</v>
+        <v>82.47</v>
       </c>
       <c r="I2" t="n">
         <v>21254</v>
       </c>
       <c r="J2" t="n">
-        <v>17.52</v>
+        <v>17.53</v>
       </c>
     </row>
     <row r="3">
@@ -534,22 +534,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1684</v>
+        <v>1596</v>
       </c>
       <c r="H3" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="I3" t="n">
         <v>119656</v>
       </c>
       <c r="J3" t="n">
-        <v>98.61</v>
+        <v>98.68000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -570,22 +570,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>93381</v>
+        <v>93294</v>
       </c>
       <c r="H4" t="n">
-        <v>76.95999999999999</v>
+        <v>76.94</v>
       </c>
       <c r="I4" t="n">
         <v>27959</v>
       </c>
       <c r="J4" t="n">
-        <v>23.04</v>
+        <v>23.06</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -606,22 +606,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>91237</v>
+        <v>91150</v>
       </c>
       <c r="H5" t="n">
-        <v>75.19</v>
+        <v>75.17</v>
       </c>
       <c r="I5" t="n">
         <v>30103</v>
       </c>
       <c r="J5" t="n">
-        <v>24.81</v>
+        <v>24.83</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -642,22 +642,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>91758</v>
+        <v>91671</v>
       </c>
       <c r="H6" t="n">
-        <v>75.62</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>29582</v>
       </c>
       <c r="J6" t="n">
-        <v>24.38</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +668,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -678,22 +678,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>92693</v>
+        <v>92606</v>
       </c>
       <c r="H7" t="n">
-        <v>76.39</v>
+        <v>76.37</v>
       </c>
       <c r="I7" t="n">
         <v>28647</v>
       </c>
       <c r="J7" t="n">
-        <v>23.61</v>
+        <v>23.63</v>
       </c>
     </row>
     <row r="8">
@@ -714,22 +714,22 @@
         <v>0.06</v>
       </c>
       <c r="E8" t="n">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="F8" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>92582</v>
+        <v>92494</v>
       </c>
       <c r="H8" t="n">
-        <v>76.3</v>
+        <v>76.28</v>
       </c>
       <c r="I8" t="n">
         <v>28758</v>
       </c>
       <c r="J8" t="n">
-        <v>23.7</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="9">
@@ -750,22 +750,22 @@
         <v>0.41</v>
       </c>
       <c r="E9" t="n">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="F9" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="G9" t="n">
-        <v>92647</v>
+        <v>92559</v>
       </c>
       <c r="H9" t="n">
-        <v>76.34999999999999</v>
+        <v>76.34</v>
       </c>
       <c r="I9" t="n">
         <v>28693</v>
       </c>
       <c r="J9" t="n">
-        <v>23.65</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="10">
@@ -786,22 +786,22 @@
         <v>0.15</v>
       </c>
       <c r="E10" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>111620</v>
+        <v>111532</v>
       </c>
       <c r="H10" t="n">
-        <v>91.98999999999999</v>
+        <v>91.98</v>
       </c>
       <c r="I10" t="n">
         <v>9720</v>
       </c>
       <c r="J10" t="n">
-        <v>8.01</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="11">
@@ -822,13 +822,13 @@
         <v>0.12</v>
       </c>
       <c r="E11" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>112233</v>
+        <v>112145</v>
       </c>
       <c r="H11" t="n">
         <v>92.48999999999999</v>
@@ -858,16 +858,16 @@
         <v>0.12</v>
       </c>
       <c r="E12" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>112483</v>
+        <v>112395</v>
       </c>
       <c r="H12" t="n">
-        <v>92.7</v>
+        <v>92.69</v>
       </c>
       <c r="I12" t="n">
         <v>8857</v>
@@ -894,22 +894,22 @@
         <v>0.14</v>
       </c>
       <c r="E13" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>112709</v>
+        <v>112621</v>
       </c>
       <c r="H13" t="n">
-        <v>92.89</v>
+        <v>92.88</v>
       </c>
       <c r="I13" t="n">
         <v>8631</v>
       </c>
       <c r="J13" t="n">
-        <v>7.11</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="14">
@@ -930,13 +930,13 @@
         <v>0.16</v>
       </c>
       <c r="E14" t="n">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="F14" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="G14" t="n">
-        <v>112947</v>
+        <v>112859</v>
       </c>
       <c r="H14" t="n">
         <v>93.08</v>
@@ -966,13 +966,13 @@
         <v>0.29</v>
       </c>
       <c r="E15" t="n">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="G15" t="n">
-        <v>113239</v>
+        <v>113151</v>
       </c>
       <c r="H15" t="n">
         <v>93.31999999999999</v>
@@ -1002,22 +1002,22 @@
         <v>0.74</v>
       </c>
       <c r="E16" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>112480</v>
+        <v>112392</v>
       </c>
       <c r="H16" t="n">
-        <v>92.7</v>
+        <v>92.69</v>
       </c>
       <c r="I16" t="n">
         <v>8860</v>
       </c>
       <c r="J16" t="n">
-        <v>7.3</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="17">
@@ -1038,16 +1038,16 @@
         <v>0.8</v>
       </c>
       <c r="E17" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>113138</v>
+        <v>113050</v>
       </c>
       <c r="H17" t="n">
-        <v>93.23999999999999</v>
+        <v>93.23</v>
       </c>
       <c r="I17" t="n">
         <v>8202</v>
@@ -1074,13 +1074,13 @@
         <v>0.79</v>
       </c>
       <c r="E18" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>113435</v>
+        <v>113347</v>
       </c>
       <c r="H18" t="n">
         <v>93.48</v>
@@ -1089,7 +1089,7 @@
         <v>7905</v>
       </c>
       <c r="J18" t="n">
-        <v>6.51</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="19">
@@ -1110,13 +1110,13 @@
         <v>0.8</v>
       </c>
       <c r="E19" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>113663</v>
+        <v>113575</v>
       </c>
       <c r="H19" t="n">
         <v>93.67</v>
@@ -1146,22 +1146,22 @@
         <v>0.84</v>
       </c>
       <c r="E20" t="n">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="F20" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="G20" t="n">
-        <v>113862</v>
+        <v>113774</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84</v>
+        <v>93.83</v>
       </c>
       <c r="I20" t="n">
         <v>7478</v>
       </c>
       <c r="J20" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="21">
@@ -1182,22 +1182,22 @@
         <v>0.77</v>
       </c>
       <c r="E21" t="n">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="F21" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="G21" t="n">
-        <v>114080</v>
+        <v>113992</v>
       </c>
       <c r="H21" t="n">
-        <v>94.02</v>
+        <v>94.01000000000001</v>
       </c>
       <c r="I21" t="n">
         <v>7260</v>
       </c>
       <c r="J21" t="n">
-        <v>5.98</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="22">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>121330</v>
+        <v>121243</v>
       </c>
       <c r="H22" t="n">
         <v>99.98999999999999</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>121330</v>
+        <v>121243</v>
       </c>
       <c r="H23" t="n">
         <v>99.98999999999999</v>
@@ -1290,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>121330</v>
+        <v>121243</v>
       </c>
       <c r="H24" t="n">
         <v>99.98999999999999</v>
@@ -1326,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>121330</v>
+        <v>121243</v>
       </c>
       <c r="H25" t="n">
         <v>99.98999999999999</v>
@@ -1362,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>121330</v>
+        <v>121243</v>
       </c>
       <c r="H26" t="n">
         <v>99.98999999999999</v>
@@ -1398,13 +1398,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>121330</v>
+        <v>121243</v>
       </c>
       <c r="H27" t="n">
         <v>99.98999999999999</v>
@@ -1434,13 +1434,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>120746</v>
+        <v>120658</v>
       </c>
       <c r="H28" t="n">
         <v>99.51000000000001</v>
@@ -1470,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>121336</v>
+        <v>121249</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>120600</v>
+        <v>120513</v>
       </c>
       <c r="H30" t="n">
         <v>99.39</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>121256</v>
+        <v>121169</v>
       </c>
       <c r="H31" t="n">
         <v>99.93000000000001</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>121319</v>
+        <v>121232</v>
       </c>
       <c r="H32" t="n">
         <v>99.98</v>
@@ -1614,13 +1614,13 @@
         <v>0.02</v>
       </c>
       <c r="E33" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>114084</v>
+        <v>113997</v>
       </c>
       <c r="H33" t="n">
         <v>94.02</v>
@@ -1650,22 +1650,22 @@
         <v>0.03</v>
       </c>
       <c r="E34" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>114031</v>
+        <v>113944</v>
       </c>
       <c r="H34" t="n">
-        <v>93.98</v>
+        <v>93.97</v>
       </c>
       <c r="I34" t="n">
         <v>7309</v>
       </c>
       <c r="J34" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="35">
@@ -1686,13 +1686,13 @@
         <v>0.02</v>
       </c>
       <c r="E35" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>113823</v>
+        <v>113736</v>
       </c>
       <c r="H35" t="n">
         <v>93.8</v>
@@ -1701,7 +1701,7 @@
         <v>7517</v>
       </c>
       <c r="J35" t="n">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="36">
@@ -1722,13 +1722,13 @@
         <v>0.01</v>
       </c>
       <c r="E36" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>113517</v>
+        <v>113430</v>
       </c>
       <c r="H36" t="n">
         <v>93.55</v>
@@ -1758,22 +1758,22 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>113064</v>
+        <v>112977</v>
       </c>
       <c r="H37" t="n">
-        <v>93.18000000000001</v>
+        <v>93.17</v>
       </c>
       <c r="I37" t="n">
         <v>8276</v>
       </c>
       <c r="J37" t="n">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="38">
@@ -1794,13 +1794,13 @@
         <v>0.11</v>
       </c>
       <c r="E38" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>112522</v>
+        <v>112435</v>
       </c>
       <c r="H38" t="n">
         <v>92.73</v>
@@ -1830,22 +1830,22 @@
         <v>0.58</v>
       </c>
       <c r="E39" t="n">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>103431</v>
+        <v>103343</v>
       </c>
       <c r="H39" t="n">
-        <v>85.23999999999999</v>
+        <v>85.23</v>
       </c>
       <c r="I39" t="n">
         <v>17909</v>
       </c>
       <c r="J39" t="n">
-        <v>14.76</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="40">
@@ -1866,22 +1866,22 @@
         <v>0.58</v>
       </c>
       <c r="E40" t="n">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="G40" t="n">
-        <v>105347</v>
+        <v>105259</v>
       </c>
       <c r="H40" t="n">
-        <v>86.81999999999999</v>
+        <v>86.81</v>
       </c>
       <c r="I40" t="n">
         <v>15993</v>
       </c>
       <c r="J40" t="n">
-        <v>13.18</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="41">
@@ -1902,22 +1902,22 @@
         <v>0.58</v>
       </c>
       <c r="E41" t="n">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="G41" t="n">
-        <v>105347</v>
+        <v>105259</v>
       </c>
       <c r="H41" t="n">
-        <v>86.81999999999999</v>
+        <v>86.81</v>
       </c>
       <c r="I41" t="n">
         <v>15993</v>
       </c>
       <c r="J41" t="n">
-        <v>13.18</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="42">
@@ -1938,22 +1938,22 @@
         <v>0.59</v>
       </c>
       <c r="E42" t="n">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="G42" t="n">
-        <v>105374</v>
+        <v>105286</v>
       </c>
       <c r="H42" t="n">
-        <v>86.84</v>
+        <v>86.83</v>
       </c>
       <c r="I42" t="n">
         <v>15966</v>
       </c>
       <c r="J42" t="n">
-        <v>13.16</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="43">
@@ -1974,22 +1974,22 @@
         <v>0.62</v>
       </c>
       <c r="E43" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="F43" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="G43" t="n">
-        <v>104760</v>
+        <v>104672</v>
       </c>
       <c r="H43" t="n">
-        <v>86.34</v>
+        <v>86.33</v>
       </c>
       <c r="I43" t="n">
         <v>16580</v>
       </c>
       <c r="J43" t="n">
-        <v>13.66</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="44">
@@ -2010,22 +2010,22 @@
         <v>0.64</v>
       </c>
       <c r="E44" t="n">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="F44" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="G44" t="n">
-        <v>103848</v>
+        <v>103760</v>
       </c>
       <c r="H44" t="n">
-        <v>85.58</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="I44" t="n">
         <v>17492</v>
       </c>
       <c r="J44" t="n">
-        <v>14.42</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="45">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2046,22 +2046,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>89202</v>
+        <v>89115</v>
       </c>
       <c r="H45" t="n">
-        <v>73.51000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="I45" t="n">
         <v>32138</v>
       </c>
       <c r="J45" t="n">
-        <v>26.49</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="46">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2082,22 +2082,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>90412</v>
+        <v>90325</v>
       </c>
       <c r="H46" t="n">
-        <v>74.51000000000001</v>
+        <v>74.48999999999999</v>
       </c>
       <c r="I46" t="n">
         <v>30928</v>
       </c>
       <c r="J46" t="n">
-        <v>25.49</v>
+        <v>25.51</v>
       </c>
     </row>
     <row r="47">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2118,22 +2118,22 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>90932</v>
+        <v>90845</v>
       </c>
       <c r="H47" t="n">
-        <v>74.94</v>
+        <v>74.92</v>
       </c>
       <c r="I47" t="n">
         <v>30408</v>
       </c>
       <c r="J47" t="n">
-        <v>25.06</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="48">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2154,22 +2154,22 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>91684</v>
+        <v>91597</v>
       </c>
       <c r="H48" t="n">
-        <v>75.56</v>
+        <v>75.54000000000001</v>
       </c>
       <c r="I48" t="n">
         <v>29656</v>
       </c>
       <c r="J48" t="n">
-        <v>24.44</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="49">
@@ -2190,22 +2190,22 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="F49" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="G49" t="n">
-        <v>92499</v>
+        <v>92411</v>
       </c>
       <c r="H49" t="n">
-        <v>76.23</v>
+        <v>76.20999999999999</v>
       </c>
       <c r="I49" t="n">
         <v>28841</v>
       </c>
       <c r="J49" t="n">
-        <v>23.77</v>
+        <v>23.79</v>
       </c>
     </row>
     <row r="50">
@@ -2226,22 +2226,22 @@
         <v>0.01</v>
       </c>
       <c r="E50" t="n">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="F50" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="G50" t="n">
-        <v>93139</v>
+        <v>93051</v>
       </c>
       <c r="H50" t="n">
-        <v>76.76000000000001</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="I50" t="n">
         <v>28201</v>
       </c>
       <c r="J50" t="n">
-        <v>23.24</v>
+        <v>23.26</v>
       </c>
     </row>
   </sheetData>
